--- a/PLR/Resultado_Avos_2025.xlsx
+++ b/PLR/Resultado_Avos_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaorocha\Desktop\Py\PLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E030A7D5-0FC3-416B-BA7C-C1BE6AF3FC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{742474BB-01B4-4E80-9566-C18CCC3A4C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-16080" yWindow="3360" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="15990" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
   <si>
     <t>Chapa</t>
   </si>
@@ -330,13 +330,16 @@
   </si>
   <si>
     <t>K92.2</t>
+  </si>
+  <si>
+    <t>Dias Afastados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,27 +349,39 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -389,22 +404,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,1428 +804,1582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="4"/>
+    <col min="3" max="3" width="34.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="M1" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>7010</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>40070</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>45716</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>45732</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="2">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="M2" s="1">
+        <f>G2-F2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>7481</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>40164</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>45698</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>45714</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="2">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M4" si="0">G3-F3</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>7684</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>40239</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>45703</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>45720</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="2">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>9064</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>41108</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>45665</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>45681</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>45721</v>
       </c>
       <c r="J5" s="2">
         <v>56</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="M5" s="1">
+        <f>I5-F5</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>9616</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>41628</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>45706</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>45724</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="2">
         <v>18</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="M6" s="1">
+        <f>G6-F6</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>9733</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>41691</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>45695</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>45712</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="2">
         <v>17</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="M7" s="1">
+        <f>G7-F7</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>9739</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>41691</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>45651</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>45669</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>45733</v>
       </c>
       <c r="J8" s="2">
         <v>82</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="M8" s="1">
+        <f>I8-F8</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>9799</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>41733</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>45706</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>45722</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J9" s="2">
         <v>16</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="M9" s="1">
+        <f>G9-F9</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>10006</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>41782</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>45644</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>45659</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>45734</v>
       </c>
       <c r="J10" s="2">
         <v>90</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="M10" s="1">
+        <f>I10-F10</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10716</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>41914</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>45687</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>45689</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="M11" s="1">
+        <f>G11-F11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10825</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>41928</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>45675</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>45691</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>45729</v>
       </c>
       <c r="J12" s="2">
         <v>54</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="M12" s="1">
+        <f>I12-F12</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>10902</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>41962</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>45712</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>45728</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J13" s="2">
         <v>16</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="K13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="M13" s="1">
+        <f>G13-F13</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>11717</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>42026</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>45716</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>45730</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J14" s="2">
         <v>14</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="M14" s="1">
+        <f t="shared" ref="M14:M15" si="1">G14-F14</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>12338</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>44021</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>45680</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>45694</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="2">
         <v>14</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>12429</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>40938</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>45672</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>45676</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>45741</v>
       </c>
       <c r="J16" s="2">
         <v>69</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="K16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="M16" s="1">
+        <f>I16-F16</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>12583</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>40872</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>45715</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>45717</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="2">
+      <c r="K17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="M17" s="1">
+        <f>G17-F17</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>12701</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>42499</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>45726</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>45743</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J18" s="2">
         <v>17</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="K18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="M18" s="1">
+        <f>G18-F18</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>12789</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>42109</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>45658</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>45674</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>45691</v>
       </c>
       <c r="J19" s="2">
         <v>33</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="K19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="M19" s="1">
+        <f>I19-F19</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>12871</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>42236</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>45590</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>45682</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>45691</v>
       </c>
       <c r="J20" s="2">
         <v>101</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="M20" s="1">
+        <f>I20-F20</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>13061</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>44697</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>45665</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>45672</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="J21" s="2">
         <v>7</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="K21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="M21" s="1">
+        <f>G21-F21</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>13534</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>45157</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>45696</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>45712</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="2">
         <v>16</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="2">
+      <c r="K22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="M22" s="1">
+        <f t="shared" ref="M22:M24" si="2">G22-F22</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>13565</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>45166</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>45703</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>45719</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J23" s="2">
         <v>16</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="2">
+      <c r="K23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>13576</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>45170</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>45712</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>45713</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="2">
+      <c r="K24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>13656</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>45226</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>45644</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>45660</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="5">
         <v>45705</v>
       </c>
       <c r="J25" s="2">
         <v>61</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="M25" s="1">
+        <f>I25-F25</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>13824</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>45336</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>45694</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>45710</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J26" s="2">
         <v>16</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="K26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="M26" s="1">
+        <f>G26-F26</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>13960</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>45393</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>45699</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>45700</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="2">
+      <c r="K27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="M27" s="1">
+        <f t="shared" ref="M27:M28" si="3">G27-F27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>14018</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>45400</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>45717</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>45734</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J28" s="2">
         <v>17</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="K28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="M28" s="1">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>14055</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>45406</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>45709</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>45718</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="5">
         <v>45727</v>
       </c>
       <c r="J29" s="2">
         <v>18</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="2">
+      <c r="K29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="M29" s="1">
+        <f>I29-F29</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>14170</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>45453</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>45688</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>45705</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>78</v>
       </c>
       <c r="J30" s="2">
         <v>17</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="2">
+      <c r="K30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="M30" s="1">
+        <f>G30-F30</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>14202</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>45462</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>45665</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>45677</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="4" t="s">
         <v>80</v>
       </c>
       <c r="J31" s="2">
         <v>12</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="M31" s="1">
+        <f t="shared" ref="M31:M33" si="4">G31-F31</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>14435</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>45624</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>45723</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>45740</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J32" s="2">
         <v>17</v>
       </c>
-      <c r="K32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="K32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="M32" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>14566</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>45674</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>45713</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>45729</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J33" s="2">
         <v>16</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="M33" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>912315</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>37777</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>45644</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>45658</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <v>45680</v>
       </c>
       <c r="J34" s="2">
         <v>36</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="M34" s="1">
+        <f>I34-F34</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>914056</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>40917</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>45713</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>45714</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="4" t="s">
         <v>89</v>
       </c>
       <c r="J35" s="2">
         <v>1</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L35" s="2">
+      <c r="K35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="M35" s="1">
+        <f>G35-F35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>914078</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>40921</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>45641</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>45658</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="4" t="s">
         <v>91</v>
       </c>
       <c r="J36" s="2">
         <v>17</v>
       </c>
-      <c r="K36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L36" s="2">
+      <c r="K36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="M36" s="1">
+        <f t="shared" ref="M36:M37" si="5">G36-F36</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>914179</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>41037</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>45724</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>45741</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="4" t="s">
         <v>95</v>
       </c>
       <c r="J37" s="2">
         <v>17</v>
       </c>
-      <c r="K37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="2">
+      <c r="K37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="M37" s="1">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>914724</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>41772</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>45663</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <v>45679</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="5">
         <v>45687</v>
       </c>
       <c r="J38" s="2">
         <v>24</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L38" s="2">
+      <c r="K38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="M38" s="1">
+        <f>I38-F38</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>915345</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>42874</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>45654</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>45674</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J39" s="2">
         <v>20</v>
       </c>
-      <c r="K39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="2">
+      <c r="K39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="4">
         <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <f>G39-F39</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/PLR/Resultado_Avos_2025.xlsx
+++ b/PLR/Resultado_Avos_2025.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,13 +610,13 @@
         <v>82</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1242,13 +1242,13 @@
         <v>69</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1708,13 +1708,13 @@
         <v>82</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2273,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2609,6 +2609,160 @@
       </c>
       <c r="J65" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Marmota 1</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>113</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Marmota 2</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="G67" t="n">
+        <v>40</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Marmota 3</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45731</v>
+      </c>
+      <c r="G68" t="n">
+        <v>43</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Marmota 4</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>118</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Marmota 5</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PLR/Resultado_Avos_2025.xlsx
+++ b/PLR/Resultado_Avos_2025.xlsx
@@ -509,7 +509,7 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -575,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H49" t="n">
         <v>2</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H50" t="n">
         <v>2</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H56" t="n">
         <v>2</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
